--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/22Sept2013_Xining_Physioflow_X5X8/X8 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/22Sept2013_Xining_Physioflow_X5X8/X8 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,21 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>105w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -150,7 +135,19 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
     <t>submax 1</t>
+  </si>
+  <si>
+    <t>105w</t>
   </si>
   <si>
     <t>120W, submax 2</t>
@@ -158,29 +155,375 @@
   <si>
     <t>stop, max</t>
   </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +531,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +841,1290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.29</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.37</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="472247110"/>
+        <c:axId val="863136342"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472247110"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863136342"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863136342"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472247110"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>502285</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11978005" y="1540510"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,21 +2408,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M59" workbookViewId="0">
-      <selection activeCell="X81" sqref="X81"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,57 +2503,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.92876157407407411</v>
+        <v>0.928761574074074</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -685,12 +2601,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.92887731481481473</v>
+        <v>0.928877314814815</v>
       </c>
       <c r="C7">
         <v>87</v>
@@ -738,12 +2654,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.92899305555555556</v>
+        <v>0.928993055555556</v>
       </c>
       <c r="C8">
         <v>88</v>
@@ -791,15 +2707,15 @@
         <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.92910879629629628</v>
+        <v>0.929108796296296</v>
       </c>
       <c r="C9">
         <v>83</v>
@@ -847,9 +2763,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
         <v>0.929224537037037</v>
@@ -900,12 +2816,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.92934027777777783</v>
+        <v>0.929340277777778</v>
       </c>
       <c r="C11">
         <v>77</v>
@@ -914,7 +2830,7 @@
         <v>62</v>
       </c>
       <c r="E11">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="F11">
         <v>3.07</v>
@@ -953,12 +2869,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.92945601851851845</v>
+        <v>0.929456018518518</v>
       </c>
       <c r="C12">
         <v>80</v>
@@ -1006,12 +2922,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.92957175925925928</v>
+        <v>0.929571759259259</v>
       </c>
       <c r="C13">
         <v>74</v>
@@ -1059,9 +2975,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
         <v>0.9296875</v>
@@ -1112,12 +3028,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.92980324074074072</v>
+        <v>0.929803240740741</v>
       </c>
       <c r="C15">
         <v>72</v>
@@ -1165,12 +3081,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.92991898148148155</v>
+        <v>0.929918981481482</v>
       </c>
       <c r="C16">
         <v>73</v>
@@ -1179,7 +3095,7 @@
         <v>62</v>
       </c>
       <c r="E16">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="F16">
         <v>2.92</v>
@@ -1218,12 +3134,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.93003472222222217</v>
+        <v>0.930034722222222</v>
       </c>
       <c r="C17">
         <v>72</v>
@@ -1271,9 +3187,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
         <v>0.930150462962963</v>
@@ -1285,7 +3201,7 @@
         <v>64</v>
       </c>
       <c r="E18">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="F18">
         <v>3.15</v>
@@ -1324,12 +3240,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.93026620370370372</v>
+        <v>0.930266203703704</v>
       </c>
       <c r="C19">
         <v>83</v>
@@ -1377,12 +3293,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.93038194444444444</v>
+        <v>0.930381944444444</v>
       </c>
       <c r="C20">
         <v>73</v>
@@ -1391,7 +3307,7 @@
         <v>63</v>
       </c>
       <c r="E20">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="F20">
         <v>2.92</v>
@@ -1430,12 +3346,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.93049768518518527</v>
+        <v>0.930497685185185</v>
       </c>
       <c r="C21">
         <v>73</v>
@@ -1483,12 +3399,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.93061342592592589</v>
+        <v>0.930613425925926</v>
       </c>
       <c r="C22">
         <v>75</v>
@@ -1536,12 +3452,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.93072916666666661</v>
+        <v>0.930729166666667</v>
       </c>
       <c r="C23">
         <v>73</v>
@@ -1589,12 +3505,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.93084490740740744</v>
+        <v>0.930844907407407</v>
       </c>
       <c r="C24">
         <v>74</v>
@@ -1642,12 +3558,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.93096064814814816</v>
+        <v>0.930960648148148</v>
       </c>
       <c r="C25">
         <v>71</v>
@@ -1695,12 +3611,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.93107638888888899</v>
+        <v>0.931076388888889</v>
       </c>
       <c r="C26">
         <v>73</v>
@@ -1709,7 +3625,7 @@
         <v>56</v>
       </c>
       <c r="E26">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="F26">
         <v>2.63</v>
@@ -1749,7 +3665,7 @@
       </c>
       <c r="U26" s="2">
         <f>AVERAGE(C6:C26)</f>
-        <v>77.38095238095238</v>
+        <v>77.3809523809524</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" ref="V26:AI26" si="0">AVERAGE(D6:D26)</f>
@@ -1757,11 +3673,11 @@
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>4.8009523809523813</v>
+        <v>4.80095238095238</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="0"/>
-        <v>3.0142857142857138</v>
+        <v>3.01428571428571</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="0"/>
@@ -1769,15 +3685,15 @@
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="0"/>
-        <v>451.61904761904759</v>
+        <v>451.619047619048</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="0"/>
-        <v>110.52380952380952</v>
+        <v>110.52380952381</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="0"/>
-        <v>109.52380952380952</v>
+        <v>109.52380952381</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="0"/>
@@ -1785,35 +3701,35 @@
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="0"/>
-        <v>106.66666666666667</v>
+        <v>106.666666666667</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="0"/>
-        <v>1403.4285714285713</v>
+        <v>1403.42857142857</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="0"/>
-        <v>2233.8095238095239</v>
+        <v>2233.80952380952</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="0"/>
-        <v>3.4728571428571433</v>
+        <v>3.47285714285714</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" si="0"/>
-        <v>113.57142857142857</v>
+        <v>113.571428571429</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="0"/>
-        <v>45.428571428571431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+        <v>45.4285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.93119212962962961</v>
+        <v>0.93119212962963</v>
       </c>
       <c r="C27">
         <v>73</v>
@@ -1822,7 +3738,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="F27">
         <v>2.68</v>
@@ -1876,12 +3792,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.93130787037037033</v>
+        <v>0.93130787037037</v>
       </c>
       <c r="C28">
         <v>81</v>
@@ -1944,12 +3860,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.93142361111111116</v>
+        <v>0.931423611111111</v>
       </c>
       <c r="C29">
         <v>89</v>
@@ -2012,12 +3928,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.93153935185185188</v>
+        <v>0.931539351851852</v>
       </c>
       <c r="C30">
         <v>93</v>
@@ -2056,7 +3972,7 @@
         <v>1848</v>
       </c>
       <c r="O30">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="P30">
         <v>104</v>
@@ -2065,7 +3981,7 @@
         <v>54</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -2083,12 +3999,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.93165509259259249</v>
+        <v>0.931655092592592</v>
       </c>
       <c r="C31">
         <v>100</v>
@@ -2151,12 +4067,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.93177083333333333</v>
+        <v>0.931770833333333</v>
       </c>
       <c r="C32">
         <v>106</v>
@@ -2168,7 +4084,7 @@
         <v>6.93</v>
       </c>
       <c r="F32">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="G32">
         <v>58</v>
@@ -2219,12 +4135,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.93188657407407405</v>
+        <v>0.931886574074074</v>
       </c>
       <c r="C33">
         <v>110</v>
@@ -2287,12 +4203,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.93200231481481488</v>
+        <v>0.932002314814815</v>
       </c>
       <c r="C34">
         <v>110</v>
@@ -2301,7 +4217,7 @@
         <v>75</v>
       </c>
       <c r="E34">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="F34">
         <v>5.25</v>
@@ -2355,12 +4271,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.9321180555555556</v>
+        <v>0.932118055555556</v>
       </c>
       <c r="C35">
         <v>106</v>
@@ -2372,7 +4288,7 @@
         <v>7.99</v>
       </c>
       <c r="F35">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="G35">
         <v>60</v>
@@ -2423,12 +4339,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.93223379629629621</v>
+        <v>0.932233796296296</v>
       </c>
       <c r="C36">
         <v>109</v>
@@ -2440,7 +4356,7 @@
         <v>7.92</v>
       </c>
       <c r="F36">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="G36">
         <v>60</v>
@@ -2491,12 +4407,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.93234953703703705</v>
+        <v>0.932349537037037</v>
       </c>
       <c r="C37">
         <v>114</v>
@@ -2559,12 +4475,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.93246527777777777</v>
+        <v>0.932465277777778</v>
       </c>
       <c r="C38">
         <v>115</v>
@@ -2627,12 +4543,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.93258101851851849</v>
+        <v>0.932581018518518</v>
       </c>
       <c r="C39">
         <v>115</v>
@@ -2695,12 +4611,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.93269675925925932</v>
+        <v>0.932696759259259</v>
       </c>
       <c r="C40">
         <v>113</v>
@@ -2763,12 +4679,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.93281249999999993</v>
+        <v>0.9328125</v>
       </c>
       <c r="C41">
         <v>116</v>
@@ -2831,12 +4747,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.93292824074074077</v>
+        <v>0.932928240740741</v>
       </c>
       <c r="C42">
         <v>121</v>
@@ -2899,12 +4815,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.93304398148148149</v>
+        <v>0.933043981481481</v>
       </c>
       <c r="C43">
         <v>122</v>
@@ -2967,12 +4883,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.93315972222222221</v>
+        <v>0.933159722222222</v>
       </c>
       <c r="C44">
         <v>122</v>
@@ -2981,7 +4897,7 @@
         <v>81</v>
       </c>
       <c r="E44">
-        <v>9.9600000000000009</v>
+        <v>9.96</v>
       </c>
       <c r="F44">
         <v>6.26</v>
@@ -3035,12 +4951,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.93327546296296304</v>
+        <v>0.933275462962963</v>
       </c>
       <c r="C45">
         <v>123</v>
@@ -3049,7 +4965,7 @@
         <v>77</v>
       </c>
       <c r="E45">
-        <v>9.5500000000000007</v>
+        <v>9.55</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -3103,12 +5019,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.93339120370370365</v>
+        <v>0.933391203703704</v>
       </c>
       <c r="C46">
         <v>125</v>
@@ -3171,12 +5087,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.93350694444444438</v>
+        <v>0.933506944444444</v>
       </c>
       <c r="C47">
         <v>125</v>
@@ -3185,7 +5101,7 @@
         <v>77</v>
       </c>
       <c r="E47">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="F47">
         <v>6.04</v>
@@ -3239,12 +5155,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.93362268518518521</v>
+        <v>0.933622685185185</v>
       </c>
       <c r="C48">
         <v>124</v>
@@ -3307,12 +5223,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.93373842592592593</v>
+        <v>0.933738425925926</v>
       </c>
       <c r="C49">
         <v>124</v>
@@ -3375,12 +5291,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.93385416666666676</v>
+        <v>0.933854166666667</v>
       </c>
       <c r="C50">
         <v>126</v>
@@ -3389,7 +5305,7 @@
         <v>78</v>
       </c>
       <c r="E50">
-        <v>9.9600000000000009</v>
+        <v>9.96</v>
       </c>
       <c r="F50">
         <v>6.26</v>
@@ -3443,12 +5359,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.93396990740740737</v>
+        <v>0.933969907407407</v>
       </c>
       <c r="C51">
         <v>128</v>
@@ -3511,12 +5427,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.9340856481481481</v>
+        <v>0.934085648148148</v>
       </c>
       <c r="C52">
         <v>130</v>
@@ -3579,12 +5495,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.93420138888888893</v>
+        <v>0.934201388888889</v>
       </c>
       <c r="C53">
         <v>131</v>
@@ -3647,12 +5563,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.93431712962962965</v>
+        <v>0.93431712962963</v>
       </c>
       <c r="C54">
         <v>133</v>
@@ -3715,12 +5631,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.93443287037037026</v>
+        <v>0.93443287037037</v>
       </c>
       <c r="C55">
         <v>132</v>
@@ -3768,7 +5684,7 @@
         <v>51</v>
       </c>
       <c r="S55" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -3786,12 +5702,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.93454861111111109</v>
+        <v>0.934548611111111</v>
       </c>
       <c r="C56">
         <v>126</v>
@@ -3854,12 +5770,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.93466435185185182</v>
+        <v>0.934664351851852</v>
       </c>
       <c r="C57">
         <v>130</v>
@@ -3922,12 +5838,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.93478009259259265</v>
+        <v>0.934780092592593</v>
       </c>
       <c r="C58">
         <v>132</v>
@@ -3990,12 +5906,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.93489583333333337</v>
+        <v>0.934895833333333</v>
       </c>
       <c r="C59">
         <v>137</v>
@@ -4043,7 +5959,7 @@
         <v>42</v>
       </c>
       <c r="S59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U59" s="2">
         <f>AVERAGE(C56:C59)</f>
@@ -4055,11 +5971,11 @@
       </c>
       <c r="W59" s="2">
         <f t="shared" si="1"/>
-        <v>10.547499999999999</v>
+        <v>10.5475</v>
       </c>
       <c r="X59" s="2">
         <f t="shared" si="1"/>
-        <v>6.6274999999999995</v>
+        <v>6.6275</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="1"/>
@@ -4095,7 +6011,7 @@
       </c>
       <c r="AG59" s="2">
         <f t="shared" si="1"/>
-        <v>7.6349999999999998</v>
+        <v>7.635</v>
       </c>
       <c r="AH59" s="2">
         <f t="shared" si="1"/>
@@ -4106,12 +6022,12 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.93501157407407398</v>
+        <v>0.935011574074074</v>
       </c>
       <c r="C60">
         <v>137</v>
@@ -4159,7 +6075,7 @@
         <v>51</v>
       </c>
       <c r="S60" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -4177,12 +6093,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.93512731481481481</v>
+        <v>0.935127314814815</v>
       </c>
       <c r="C61">
         <v>141</v>
@@ -4245,12 +6161,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.93524305555555554</v>
+        <v>0.935243055555556</v>
       </c>
       <c r="C62">
         <v>150</v>
@@ -4313,12 +6229,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.93535879629629637</v>
+        <v>0.935358796296296</v>
       </c>
       <c r="C63">
         <v>155</v>
@@ -4330,7 +6246,7 @@
         <v>13.22</v>
       </c>
       <c r="F63">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="G63">
         <v>59</v>
@@ -4381,12 +6297,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.93547453703703709</v>
+        <v>0.935474537037037</v>
       </c>
       <c r="C64">
         <v>159</v>
@@ -4449,12 +6365,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.9355902777777777</v>
+        <v>0.935590277777778</v>
       </c>
       <c r="C65">
         <v>159</v>
@@ -4466,7 +6382,7 @@
         <v>14.37</v>
       </c>
       <c r="F65">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="G65">
         <v>60</v>
@@ -4502,7 +6418,7 @@
         <v>47</v>
       </c>
       <c r="S65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U65" s="2">
         <f>AVERAGE(C62:C65)</f>
@@ -4518,7 +6434,7 @@
       </c>
       <c r="X65" s="2">
         <f t="shared" si="2"/>
-        <v>8.4949999999999992</v>
+        <v>8.495</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="2"/>
@@ -4554,7 +6470,7 @@
       </c>
       <c r="AG65" s="2">
         <f t="shared" si="2"/>
-        <v>9.7899999999999991</v>
+        <v>9.79</v>
       </c>
       <c r="AH65" s="2">
         <f t="shared" si="2"/>
@@ -4565,12 +6481,12 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.93570601851851853</v>
+        <v>0.935706018518519</v>
       </c>
       <c r="C66">
         <v>157</v>
@@ -4582,7 +6498,7 @@
         <v>14.25</v>
       </c>
       <c r="F66">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="G66">
         <v>59</v>
@@ -4633,12 +6549,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.93582175925925926</v>
+        <v>0.935821759259259</v>
       </c>
       <c r="C67">
         <v>159</v>
@@ -4701,12 +6617,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.93593749999999998</v>
+        <v>0.9359375</v>
       </c>
       <c r="C68">
         <v>163</v>
@@ -4718,7 +6634,7 @@
         <v>13.6</v>
       </c>
       <c r="F68">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="G68">
         <v>59</v>
@@ -4769,12 +6685,12 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.93605324074074081</v>
+        <v>0.936053240740741</v>
       </c>
       <c r="C69">
         <v>166</v>
@@ -4837,12 +6753,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>0.93616898148148142</v>
+        <v>0.936168981481481</v>
       </c>
       <c r="C70">
         <v>172</v>
@@ -4905,12 +6821,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>0.93628472222222225</v>
+        <v>0.936284722222222</v>
       </c>
       <c r="C71">
         <v>178</v>
@@ -4922,7 +6838,7 @@
         <v>15.86</v>
       </c>
       <c r="F71">
-        <v>9.9600000000000009</v>
+        <v>9.96</v>
       </c>
       <c r="G71">
         <v>59</v>
@@ -4973,12 +6889,12 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>0.93640046296296298</v>
+        <v>0.936400462962963</v>
       </c>
       <c r="C72">
         <v>180</v>
@@ -4987,7 +6903,7 @@
         <v>89</v>
       </c>
       <c r="E72">
-        <v>16.079999999999998</v>
+        <v>16.08</v>
       </c>
       <c r="F72">
         <v>10.1</v>
@@ -5041,12 +6957,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>0.9365162037037037</v>
+        <v>0.936516203703704</v>
       </c>
       <c r="C73">
         <v>181</v>
@@ -5109,12 +7025,12 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.93663194444444453</v>
+        <v>0.936631944444445</v>
       </c>
       <c r="C74">
         <v>187</v>
@@ -5123,7 +7039,7 @@
         <v>89</v>
       </c>
       <c r="E74">
-        <v>16.649999999999999</v>
+        <v>16.65</v>
       </c>
       <c r="F74">
         <v>10.46</v>
@@ -5162,43 +7078,43 @@
         <v>48</v>
       </c>
       <c r="S74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U74" s="2">
         <f>AVERAGE(C68:C74)</f>
-        <v>175.28571428571428</v>
+        <v>175.285714285714</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" ref="V74:AI74" si="3">AVERAGE(D68:D74)</f>
-        <v>85.857142857142861</v>
+        <v>85.8571428571429</v>
       </c>
       <c r="W74" s="2">
         <f t="shared" si="3"/>
-        <v>15.192857142857141</v>
+        <v>15.1928571428571</v>
       </c>
       <c r="X74" s="2">
         <f t="shared" si="3"/>
-        <v>9.5442857142857154</v>
+        <v>9.54428571428572</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="3"/>
-        <v>58.714285714285715</v>
+        <v>58.7142857142857</v>
       </c>
       <c r="Z74" s="2">
         <f t="shared" si="3"/>
-        <v>254.42857142857142</v>
+        <v>254.428571428571</v>
       </c>
       <c r="AA74" s="2">
         <f t="shared" si="3"/>
-        <v>125.28571428571429</v>
+        <v>125.285714285714</v>
       </c>
       <c r="AB74" s="2">
         <f t="shared" si="3"/>
-        <v>109.57142857142857</v>
+        <v>109.571428571429</v>
       </c>
       <c r="AC74" s="2">
         <f t="shared" si="3"/>
-        <v>79.285714285714292</v>
+        <v>79.2857142857143</v>
       </c>
       <c r="AD74" s="2">
         <f t="shared" si="3"/>
@@ -5206,7 +7122,7 @@
       </c>
       <c r="AE74" s="2">
         <f t="shared" si="3"/>
-        <v>439.14285714285717</v>
+        <v>439.142857142857</v>
       </c>
       <c r="AF74" s="2">
         <f t="shared" si="3"/>
@@ -5214,7 +7130,7 @@
       </c>
       <c r="AG74" s="2">
         <f t="shared" si="3"/>
-        <v>10.997142857142856</v>
+        <v>10.9971428571429</v>
       </c>
       <c r="AH74" s="2">
         <f t="shared" si="3"/>
@@ -5222,15 +7138,15 @@
       </c>
       <c r="AI74" s="2">
         <f t="shared" si="3"/>
-        <v>48.142857142857146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+        <v>48.1428571428571</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>0.93674768518518514</v>
+        <v>0.936747685185185</v>
       </c>
       <c r="C75">
         <v>181</v>
@@ -5242,7 +7158,7 @@
         <v>15.73</v>
       </c>
       <c r="F75">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="G75">
         <v>61</v>
@@ -5278,12 +7194,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>0.93686342592592586</v>
+        <v>0.936863425925926</v>
       </c>
       <c r="C76">
         <v>167</v>
@@ -5322,7 +7238,7 @@
         <v>768</v>
       </c>
       <c r="O76">
-        <v>9.9499999999999993</v>
+        <v>9.95</v>
       </c>
       <c r="P76">
         <v>101</v>
@@ -5331,12 +7247,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>0.9369791666666667</v>
+        <v>0.936979166666667</v>
       </c>
       <c r="C77">
         <v>160</v>
@@ -5375,7 +7291,7 @@
         <v>795</v>
       </c>
       <c r="O77">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="P77">
         <v>105</v>
@@ -5384,12 +7300,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" s="1">
-        <v>0.93709490740740742</v>
+        <v>0.937094907407407</v>
       </c>
       <c r="C78">
         <v>156</v>
@@ -5437,12 +7353,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" s="1">
-        <v>0.93721064814814825</v>
+        <v>0.937210648148148</v>
       </c>
       <c r="C79">
         <v>155</v>
@@ -5490,36 +7406,46 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>